--- a/1.2.3.IPC_Por grupo de gasto Colombia.xlsx
+++ b/1.2.3.IPC_Por grupo de gasto Colombia.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EB30D4-2ED0-475E-BE95-BF4CA13F042F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD24035E-EFBB-45B2-96CF-F836771DB0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="93">
   <si>
     <t>Índice de precios al consumidor (IPC)_Base diciembre 2008</t>
   </si>
@@ -414,6 +414,12 @@
   <si>
     <t>nivel_general_mensual</t>
   </si>
+  <si>
+    <t>Periodo</t>
+  </si>
+  <si>
+    <t>Año_mes</t>
+  </si>
 </sst>
 </file>
 
@@ -553,7 +559,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -657,30 +663,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -765,12 +747,8 @@
     <xf numFmtId="4" fontId="12" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -796,6 +774,13 @@
     <xf numFmtId="4" fontId="12" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="4"/>
     </xf>
@@ -820,20 +805,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{6BEE8DE5-B011-483C-A016-2E8CB2FBD503}"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="64">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -843,17 +827,13 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
+        <color theme="1"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -873,6 +853,309 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1235,18 +1518,12 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
+      <font>
+        <name val="Arial"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="4"/>
@@ -1291,313 +1568,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1608,18 +1578,17 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
+          <fgColor theme="4"/>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2601,90 +2570,90 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{295CE76A-F655-4F78-BE71-4FFC8CEAE821}" name="Tabla1" displayName="Tabla1" ref="A1:L25" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63" tableBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{295CE76A-F655-4F78-BE71-4FFC8CEAE821}" name="Tabla1" displayName="Tabla1" ref="A1:L25" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="61">
   <autoFilter ref="A1:L25" xr:uid="{295CE76A-F655-4F78-BE71-4FFC8CEAE821}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{E1F8257E-2A8A-46C1-8CA6-0C58ECE221E0}" name="Año" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{8EBAAE07-A336-457F-B3D0-A25F034BD93D}" name="Mes" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{612ECC94-183C-42FE-B6C4-62775A91D9B9}" name="TOTAL" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{5BFE7C1F-C786-4DAA-95C6-FC7A7A70BF0B}" name="Alimentos" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{EBC05104-C610-4542-A2F7-4208ACCDBECA}" name="Vivienda" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{7D3630C1-603E-4BAC-9987-A0EFAD3FDCFA}" name="Vestuario" dataDxfId="56"/>
-    <tableColumn id="7" xr3:uid="{F013340A-099D-4AE2-9118-DA1D9C8FE69F}" name="Salud" dataDxfId="55"/>
-    <tableColumn id="8" xr3:uid="{44B37B04-BD48-4AE3-874C-467973910E86}" name="Educación" dataDxfId="54"/>
-    <tableColumn id="9" xr3:uid="{33633FAD-87B7-482D-9B47-94880FA5CB29}" name="Diversión" dataDxfId="53"/>
-    <tableColumn id="10" xr3:uid="{48CE25CD-F106-4FBE-AF56-3208A54D1105}" name="Transporte" dataDxfId="52"/>
-    <tableColumn id="11" xr3:uid="{D84CF04F-CF57-483E-A7E1-DC42192A2C6E}" name="Comunicaciones" dataDxfId="51"/>
-    <tableColumn id="12" xr3:uid="{8C20683F-00C6-4D11-9E58-43EDD901033E}" name="Otros Gastos" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{E1F8257E-2A8A-46C1-8CA6-0C58ECE221E0}" name="Año" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{8EBAAE07-A336-457F-B3D0-A25F034BD93D}" name="Mes" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{612ECC94-183C-42FE-B6C4-62775A91D9B9}" name="TOTAL" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{5BFE7C1F-C786-4DAA-95C6-FC7A7A70BF0B}" name="Alimentos" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{EBC05104-C610-4542-A2F7-4208ACCDBECA}" name="Vivienda" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{7D3630C1-603E-4BAC-9987-A0EFAD3FDCFA}" name="Vestuario" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{F013340A-099D-4AE2-9118-DA1D9C8FE69F}" name="Salud" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{44B37B04-BD48-4AE3-874C-467973910E86}" name="Educación" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{33633FAD-87B7-482D-9B47-94880FA5CB29}" name="Diversión" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{48CE25CD-F106-4FBE-AF56-3208A54D1105}" name="Transporte" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{D84CF04F-CF57-483E-A7E1-DC42192A2C6E}" name="Comunicaciones" dataDxfId="50"/>
+    <tableColumn id="12" xr3:uid="{8C20683F-00C6-4D11-9E58-43EDD901033E}" name="Otros Gastos" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{65CCA381-9A5E-44DC-AFB6-F767AB761E41}" name="Tabla13" displayName="Tabla13" ref="A1:L25" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{65CCA381-9A5E-44DC-AFB6-F767AB761E41}" name="Tabla13" displayName="Tabla13" ref="A1:L25" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47" tableBorderDxfId="46">
   <autoFilter ref="A1:L25" xr:uid="{65CCA381-9A5E-44DC-AFB6-F767AB761E41}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{B6CE91CC-9362-406F-9123-80C8435D5012}" name="Año" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{BAD815CB-95A7-4986-9D7D-31E74DAEDAEA}" name="Mes" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{6A5C44D4-EC7D-4529-8399-3B373249A52D}" name="TOTAL" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{E4AD39FB-8AC6-4E46-BC5B-F85BE3D5B785}" name="Alimentos" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{B052F616-906B-4D58-B62E-0E56D1D48154}" name="Vivienda" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{7654277F-4280-4588-B7B8-8F67913C5A2B}" name="Vestuario" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{3A734EE1-6183-4121-AE23-2DB3B78BC509}" name="Salud" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{5359DF73-1819-4A73-B381-707ECEB44BE8}" name="Educación" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{1C583536-1E57-4059-84A8-2C317164AF22}" name="Diversión" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{E8214F64-6598-48B3-BEA3-1437FCB456FC}" name="Transporte" dataDxfId="37"/>
-    <tableColumn id="11" xr3:uid="{EBA19A90-1FC5-47C2-8C39-FD2F123D5F2F}" name="Comunicaciones" dataDxfId="36"/>
-    <tableColumn id="12" xr3:uid="{D0F92926-89D5-428D-958D-E63D7A3744AA}" name="Otros Gastos" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{B6CE91CC-9362-406F-9123-80C8435D5012}" name="Año" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{BAD815CB-95A7-4986-9D7D-31E74DAEDAEA}" name="Mes" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{6A5C44D4-EC7D-4529-8399-3B373249A52D}" name="TOTAL" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{E4AD39FB-8AC6-4E46-BC5B-F85BE3D5B785}" name="Alimentos" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{B052F616-906B-4D58-B62E-0E56D1D48154}" name="Vivienda" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{7654277F-4280-4588-B7B8-8F67913C5A2B}" name="Vestuario" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{3A734EE1-6183-4121-AE23-2DB3B78BC509}" name="Salud" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{5359DF73-1819-4A73-B381-707ECEB44BE8}" name="Educación" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{1C583536-1E57-4059-84A8-2C317164AF22}" name="Diversión" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{E8214F64-6598-48B3-BEA3-1437FCB456FC}" name="Transporte" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{EBA19A90-1FC5-47C2-8C39-FD2F123D5F2F}" name="Comunicaciones" dataDxfId="35"/>
+    <tableColumn id="12" xr3:uid="{D0F92926-89D5-428D-958D-E63D7A3744AA}" name="Otros Gastos" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3EE2650A-42AA-45EB-A085-122EE0565676}" name="Tabla5" displayName="Tabla5" ref="A1:O38" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="17">
-  <autoFilter ref="A1:O38" xr:uid="{3EE2650A-42AA-45EB-A085-122EE0565676}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3EE2650A-42AA-45EB-A085-122EE0565676}" name="Tabla5" displayName="Tabla5" ref="A1:O1048576" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32" tableBorderDxfId="31">
+  <autoFilter ref="A1:O1048576" xr:uid="{3EE2650A-42AA-45EB-A085-122EE0565676}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{8B0E3B1F-04A5-47E6-8B0C-6607491A64F9}" name="Año" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{60538887-83DB-41BD-8AD3-0278EF312D5D}" name="Mes" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00AD62D0-32D7-4FFD-82C8-0A6F2A5BC8D5}" name="nivel_general_mensual" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{0F37DD9B-AB84-4A89-A70A-DD174FC262E9}" name="alimentos_bebidas_no_alc_mensual" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{2133316B-0FD0-419A-92BE-5DB651A04AF2}" name="alcohol_tabaco_mensual" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{B33A2124-B9A7-42D9-B876-C6A286EFCEC6}" name="vestimenta_mensual" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{7FF94596-4C5E-4D72-9178-00E24C6C6C19}" name="vivienda_mensual" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{4281FD70-33FB-4C8B-A3E7-61A1526579B6}" name="hogar_mensual" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{AC065197-FD12-4000-8117-D77A55DC70CD}" name="salud_mensual" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{2C516EED-14B5-447F-AE07-6188033D7B50}" name="transporte_mensual" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{BC08B2E7-EF71-46D4-BC86-364487D0B9EE}" name="comunicación_mensual" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{889FEC37-6592-42EF-97B0-7BE20C1ED947}" name="recreacion_mensual" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{3EDAC1C8-1868-4361-ACD3-5896C2C20A7F}" name="educacion_mensual" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{9D23F740-E87E-424A-AD04-A3529EA6DAC3}" name="restaurantes_hoteles_mensual" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{0A6FF70F-86AD-4627-AEF3-67D61E9385EE}" name="bienes_servicios_varios_mensual" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8B0E3B1F-04A5-47E6-8B0C-6607491A64F9}" name="Periodo" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{59F4DA4F-E372-48C1-9663-83D3117E4147}" name="Año_mes"/>
+    <tableColumn id="3" xr3:uid="{00AD62D0-32D7-4FFD-82C8-0A6F2A5BC8D5}" name="nivel_general_mensual" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{0F37DD9B-AB84-4A89-A70A-DD174FC262E9}" name="alimentos_bebidas_no_alc_mensual" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{2133316B-0FD0-419A-92BE-5DB651A04AF2}" name="alcohol_tabaco_mensual" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{B33A2124-B9A7-42D9-B876-C6A286EFCEC6}" name="vestimenta_mensual" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{7FF94596-4C5E-4D72-9178-00E24C6C6C19}" name="vivienda_mensual" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{4281FD70-33FB-4C8B-A3E7-61A1526579B6}" name="hogar_mensual" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{AC065197-FD12-4000-8117-D77A55DC70CD}" name="salud_mensual" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{2C516EED-14B5-447F-AE07-6188033D7B50}" name="transporte_mensual" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{BC08B2E7-EF71-46D4-BC86-364487D0B9EE}" name="comunicación_mensual" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{889FEC37-6592-42EF-97B0-7BE20C1ED947}" name="recreacion_mensual" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{3EDAC1C8-1868-4361-ACD3-5896C2C20A7F}" name="educacion_mensual" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{9D23F740-E87E-424A-AD04-A3529EA6DAC3}" name="restaurantes_hoteles_mensual" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{0A6FF70F-86AD-4627-AEF3-67D61E9385EE}" name="bienes_servicios_varios_mensual" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{54A3D90F-E1FA-4983-8495-0272B534D67C}" name="Tabla3" displayName="Tabla3" ref="A1:O38" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{54A3D90F-E1FA-4983-8495-0272B534D67C}" name="Tabla3" displayName="Tabla3" ref="A1:O38" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:O38" xr:uid="{54A3D90F-E1FA-4983-8495-0272B534D67C}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{A8758A23-0EB6-450B-BF2B-DC206641E374}" name="Año" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{54DD5E65-948A-4FFA-8102-2E2D565DBA3C}" name="Mes" dataDxfId="31"/>
-    <tableColumn id="15" xr3:uid="{6CC36F1A-7FC9-46B6-9DF3-20F1716EBD8F}" name="nivel_general_anual" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{5C063156-FF3E-4C0A-A2F8-F8AC006088BF}" name="alimentos_bebidas_anual" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{825F20B1-4CB4-43B1-B073-555D10CAFDDF}" name="alcohol_tabaco_anual" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{CA27E7A2-AC87-4ABA-81B2-B0179E458F46}" name="vestimenta_anual" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{44EEB6A6-D607-41D6-BEE6-592F1D397363}" name="servicios_vivienda_anual" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{2C3B0756-2F53-4150-9062-B9A3EE9E41B2}" name="hogar_anual" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{4BEFE6C3-5BCA-4EE2-8058-9A8EC73AB08D}" name="salud_anual" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{89A240A2-3440-44CF-BBDF-D6BABD4617E2}" name="transporte_anual" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{1C5C4E14-6759-4816-91AA-0F82428ACA59}" name="comunicacion_anual" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{4BB19D7C-1328-412D-80C4-1F6ED5D8D94F}" name="recreacion_anual" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{06A2A216-C84A-4131-910F-8F289E33A8BF}" name="educacion_anual" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{9B966037-5B76-4990-BC7A-9E63A8CE69AA}" name="restaurantes_hoteles_anual" dataDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{7CCA16B2-7074-4032-A5F8-BF4CD431A62A}" name="bienes_servicios_varios_anual" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{A8758A23-0EB6-450B-BF2B-DC206641E374}" name="Periodo" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{A6B6ABAB-9872-468B-8CDC-CD2A5CB297C1}" name="Año_mes" dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{6CC36F1A-7FC9-46B6-9DF3-20F1716EBD8F}" name="nivel_general_anual" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{5C063156-FF3E-4C0A-A2F8-F8AC006088BF}" name="alimentos_bebidas_anual" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{825F20B1-4CB4-43B1-B073-555D10CAFDDF}" name="alcohol_tabaco_anual" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{CA27E7A2-AC87-4ABA-81B2-B0179E458F46}" name="vestimenta_anual" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{44EEB6A6-D607-41D6-BEE6-592F1D397363}" name="servicios_vivienda_anual" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{2C3B0756-2F53-4150-9062-B9A3EE9E41B2}" name="hogar_anual" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{4BEFE6C3-5BCA-4EE2-8058-9A8EC73AB08D}" name="salud_anual" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{89A240A2-3440-44CF-BBDF-D6BABD4617E2}" name="transporte_anual" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{1C5C4E14-6759-4816-91AA-0F82428ACA59}" name="comunicacion_anual" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{4BB19D7C-1328-412D-80C4-1F6ED5D8D94F}" name="recreacion_anual" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{06A2A216-C84A-4131-910F-8F289E33A8BF}" name="educacion_anual" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{9B966037-5B76-4990-BC7A-9E63A8CE69AA}" name="restaurantes_hoteles_anual" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{7CCA16B2-7074-4032-A5F8-BF4CD431A62A}" name="bienes_servicios_varios_anual" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3025,18 +2994,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -3055,18 +3024,18 @@
     </row>
     <row r="7" spans="1:11" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="45"/>
     </row>
     <row r="8" spans="1:11" ht="93.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -3949,136 +3918,136 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
@@ -6062,1808 +6031,1810 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1626FCBF-7B54-4452-A098-374E5FB1BD00}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B1:B38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1796875" customWidth="1"/>
-    <col min="5" max="5" width="23.6328125" customWidth="1"/>
-    <col min="6" max="6" width="20.26953125" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" customWidth="1"/>
-    <col min="8" max="8" width="15.7265625" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" customWidth="1"/>
-    <col min="10" max="10" width="19.90625" customWidth="1"/>
-    <col min="11" max="11" width="22.36328125" customWidth="1"/>
-    <col min="12" max="12" width="19.6328125" customWidth="1"/>
-    <col min="13" max="13" width="19.36328125" customWidth="1"/>
-    <col min="14" max="14" width="28.81640625" customWidth="1"/>
-    <col min="15" max="15" width="30.453125" customWidth="1"/>
+    <col min="3" max="3" width="31.54296875" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="23.6328125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="15.36328125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="19.90625" style="35" customWidth="1"/>
+    <col min="11" max="11" width="22.36328125" style="35" customWidth="1"/>
+    <col min="12" max="12" width="19.6328125" style="35" customWidth="1"/>
+    <col min="13" max="13" width="19.36328125" style="35" customWidth="1"/>
+    <col min="14" max="14" width="28.81640625" style="35" customWidth="1"/>
+    <col min="15" max="15" width="30.453125" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
+      <c r="A1" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>92</v>
       </c>
       <c r="C1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="34" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="23">
-        <v>2019</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="24">
+      <c r="A2" s="37">
+        <v>43466</v>
+      </c>
+      <c r="B2" s="48">
+        <v>2019.01</v>
+      </c>
+      <c r="C2" s="23">
         <v>0.6</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="24">
         <v>1.4</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="24">
         <v>0.49</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="24">
         <v>-0.16</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="24">
         <v>0.25</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="24">
         <v>0.46</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="24">
         <v>0.37</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="24">
         <v>0.37</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="24">
         <v>1.44</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="24">
         <v>0.47</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="24">
         <v>0</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="24">
         <v>1.1499999999999999</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="24">
         <v>0.78</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="23">
-        <v>2019</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="24">
+      <c r="A3" s="37">
+        <v>43497</v>
+      </c>
+      <c r="B3" s="48">
+        <v>2019.02</v>
+      </c>
+      <c r="C3" s="23">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="24">
         <v>0.23</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="24">
         <v>1.05</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="24">
         <v>0.08</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="24">
         <v>0.27</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="24">
         <v>0.39</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="24">
         <v>-0.02</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="24">
         <v>0.78</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="24">
         <v>-0.12</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="24">
         <v>0.53</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="24">
         <v>4.4800000000000004</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="24">
         <v>0.75</v>
       </c>
-      <c r="O3" s="26">
+      <c r="O3" s="24">
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="23">
-        <v>2019</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="24">
+      <c r="A4" s="37">
+        <v>43525</v>
+      </c>
+      <c r="B4" s="48">
+        <v>2019.03</v>
+      </c>
+      <c r="C4" s="23">
         <v>0.43</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="24">
         <v>0.95</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="24">
         <v>0.94</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="24">
         <v>-0.02</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="24">
         <v>0.67</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="24">
         <v>0.37</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="24">
         <v>0.15</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="24">
         <v>0.38</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="24">
         <v>-0.13</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="24">
         <v>-0.5</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="24">
         <v>0.03</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="24">
         <v>-0.03</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="24">
         <v>0.27</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="23">
-        <v>2019</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="24">
+      <c r="A5" s="37">
+        <v>43556</v>
+      </c>
+      <c r="B5" s="48">
+        <v>2019.04</v>
+      </c>
+      <c r="C5" s="23">
         <v>0.5</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="24">
         <v>1.07</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="24">
         <v>0.81</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="24">
         <v>0.47</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="24">
         <v>0.46</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="24">
         <v>0.31</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="24">
         <v>0.23</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="24">
         <v>0.72</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="24">
         <v>0.33</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="24">
         <v>0.09</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="24">
         <v>0.47</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="24">
         <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="23">
-        <v>2019</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="24">
+      <c r="A6" s="37">
+        <v>43586</v>
+      </c>
+      <c r="B6" s="48">
+        <v>2019.05</v>
+      </c>
+      <c r="C6" s="23">
         <v>0.31</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="24">
         <v>0.65</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="24">
         <v>0.79</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="24">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="24">
         <v>0.43</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="24">
         <v>0.32</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="24">
         <v>0.25</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="24">
         <v>0.01</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="24">
         <v>-0.06</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="24">
         <v>0.19</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="24">
         <v>0.05</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="24">
         <v>0.18</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="24">
         <v>0.12</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="23">
-        <v>2019</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="24">
+      <c r="A7" s="37">
+        <v>43617</v>
+      </c>
+      <c r="B7" s="48">
+        <v>2019.06</v>
+      </c>
+      <c r="C7" s="23">
         <v>0.27</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="24">
         <v>0.85</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="24">
         <v>0.25</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="24">
         <v>0.09</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="24">
         <v>0.08</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="24">
         <v>0.21</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="24">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="24">
         <v>0.45</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="24">
         <v>-0.12</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="24">
         <v>0.53</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="24">
         <v>0</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="24">
         <v>0.1</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="24">
         <v>0.13</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="23">
-        <v>2019</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="24">
+      <c r="A8" s="37">
+        <v>43647</v>
+      </c>
+      <c r="B8" s="48">
+        <v>2019.07</v>
+      </c>
+      <c r="C8" s="23">
         <v>0.22</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="24">
         <v>0.66</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="24">
         <v>-0.01</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="24">
         <v>-0.23</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="24">
         <v>0.17</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="24">
         <v>0.05</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="24">
         <v>0.15</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="24">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="24">
         <v>0.33</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="24">
         <v>0.51</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="24">
         <v>0</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="24">
         <v>-0.05</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="24">
         <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="23">
-        <v>2019</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="24">
+      <c r="A9" s="37">
+        <v>43678</v>
+      </c>
+      <c r="B9" s="48">
+        <v>2019.08</v>
+      </c>
+      <c r="C9" s="23">
         <v>0.09</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="24">
         <v>-0.13</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="24">
         <v>-0.08</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="24">
         <v>0.22</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="24">
         <v>0.16</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="24">
         <v>0.04</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="24">
         <v>0.3</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="24">
         <v>0.1</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="24">
         <v>-0.18</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="24">
         <v>-0.26</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="24">
         <v>0.11</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="24">
         <v>0.32</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="24">
         <v>0.16</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="23">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="24">
+      <c r="A10" s="37">
+        <v>43709</v>
+      </c>
+      <c r="B10" s="48">
+        <v>2019.09</v>
+      </c>
+      <c r="C10" s="23">
         <v>0.23</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="24">
         <v>0.46</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="24">
         <v>-0.17</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="24">
         <v>0.13</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="24">
         <v>0.21</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="24">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="24">
         <v>0.05</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="24">
         <v>-0.02</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="24">
         <v>-0.43</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="24">
         <v>0.9</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="24">
         <v>0.33</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="24">
         <v>0.32</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="23">
-        <v>2019</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="24">
+      <c r="A11" s="37">
+        <v>43739</v>
+      </c>
+      <c r="B11" s="48">
+        <v>2019.1</v>
+      </c>
+      <c r="C11" s="23">
         <v>0.16</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="24">
         <v>0.25</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="24">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="24">
         <v>0.04</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="24">
         <v>0.19</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="24">
         <v>-0.05</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="24">
         <v>0.34</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="24">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="24">
         <v>-0.06</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="24">
         <v>0.47</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="24">
         <v>0.03</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="24">
         <v>0.11</v>
       </c>
-      <c r="O11" s="26">
+      <c r="O11" s="24">
         <v>0.04</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="23">
-        <v>2019</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="24">
+      <c r="A12" s="37">
+        <v>43770</v>
+      </c>
+      <c r="B12" s="48">
+        <v>2019.11</v>
+      </c>
+      <c r="C12" s="23">
         <v>0.1</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="24">
         <v>-0.47</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="24">
         <v>0.44</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="24">
         <v>0.11</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="24">
         <v>0.3</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="24">
         <v>0.11</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="24">
         <v>0.21</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="24">
         <v>0.1</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="24">
         <v>-0.06</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="24">
         <v>0.39</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="24">
         <v>0</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="24">
         <v>0.32</v>
       </c>
-      <c r="O12" s="26">
+      <c r="O12" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="23">
-        <v>2019</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="24">
+      <c r="A13" s="37">
+        <v>43800</v>
+      </c>
+      <c r="B13" s="48">
+        <v>2019.12</v>
+      </c>
+      <c r="C13" s="23">
         <v>0.26</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="24">
         <v>-0.25</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="24">
         <v>0.54</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="24">
         <v>0.21</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="24">
         <v>0.09</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="24">
         <v>0.17</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="24">
         <v>0.48</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="24">
         <v>0.96</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="24">
         <v>1.41</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M13" s="24">
         <v>0</v>
       </c>
-      <c r="N13" s="26">
+      <c r="N13" s="24">
         <v>0.5</v>
       </c>
-      <c r="O13" s="26">
+      <c r="O13" s="24">
         <v>0.16</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="23">
-        <v>2020</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="24">
+      <c r="A14" s="37">
+        <v>43831</v>
+      </c>
+      <c r="B14" s="48">
+        <v>2020.01</v>
+      </c>
+      <c r="C14" s="23">
         <v>0.42</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="24">
         <v>0.76</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="24">
         <v>0.41</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="24">
         <v>0.22</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="24">
         <v>0.05</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="24">
         <v>0.51</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="24">
         <v>0.59</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="24">
         <v>0.7</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="24">
         <v>0.39</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="24">
         <v>0.49</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="24">
         <v>0</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="24">
         <v>0.87</v>
       </c>
-      <c r="O14" s="26">
+      <c r="O14" s="24">
         <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="23">
-        <v>2020</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="24">
+      <c r="A15" s="37">
+        <v>43862</v>
+      </c>
+      <c r="B15" s="48">
+        <v>2020.02</v>
+      </c>
+      <c r="C15" s="23">
         <v>0.67</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="24">
         <v>0.93</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="24">
         <v>0.51</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="24">
         <v>0.31</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="24">
         <v>0.47</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="24">
         <v>0.35</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="24">
         <v>0.65</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="24">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="24">
         <v>-0.1</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="24">
         <v>0.24</v>
       </c>
-      <c r="M15" s="26">
+      <c r="M15" s="24">
         <v>4.78</v>
       </c>
-      <c r="N15" s="26">
+      <c r="N15" s="24">
         <v>0.54</v>
       </c>
-      <c r="O15" s="26">
+      <c r="O15" s="24">
         <v>0.37</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="23">
-        <v>2020</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="24">
+      <c r="A16" s="37">
+        <v>43891</v>
+      </c>
+      <c r="B16" s="48">
+        <v>2020.03</v>
+      </c>
+      <c r="C16" s="23">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="24">
         <v>2.21</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="24">
         <v>0.23</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="24">
         <v>0.05</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="24">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="24">
         <v>0.3</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="24">
         <v>0.49</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="24">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="24">
         <v>0.02</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="24">
         <v>-0.37</v>
       </c>
-      <c r="M16" s="26">
+      <c r="M16" s="24">
         <v>0.03</v>
       </c>
-      <c r="N16" s="26">
+      <c r="N16" s="24">
         <v>0.16</v>
       </c>
-      <c r="O16" s="26">
+      <c r="O16" s="24">
         <v>0.42</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="23">
-        <v>2020</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="24">
+      <c r="A17" s="37">
+        <v>43922</v>
+      </c>
+      <c r="B17" s="48">
+        <v>2020.04</v>
+      </c>
+      <c r="C17" s="23">
         <v>0.16</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="24">
         <v>2.04</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="24">
         <v>0.12</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="24">
         <v>-0.39</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="24">
         <v>0.15</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="24">
         <v>0.51</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="24">
         <v>-0.89</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="24">
         <v>-2.97</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="24">
         <v>0.03</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17" s="24">
         <v>0.01</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N17" s="24">
         <v>0.16</v>
       </c>
-      <c r="O17" s="26">
+      <c r="O17" s="24">
         <v>0.22</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="23">
-        <v>2020</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="24">
+      <c r="A18" s="37">
+        <v>43952</v>
+      </c>
+      <c r="B18" s="48">
+        <v>2020.05</v>
+      </c>
+      <c r="C18" s="23">
         <v>-0.32</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="24">
         <v>0.04</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="24">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="24">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="24">
         <v>-0.2</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="24">
         <v>-1.69</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="24">
         <v>0.43</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="24">
         <v>-0.47</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="24">
         <v>-3.12</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="24">
         <v>0.04</v>
       </c>
-      <c r="M18" s="26">
+      <c r="M18" s="24">
         <v>0.04</v>
       </c>
-      <c r="N18" s="26">
+      <c r="N18" s="24">
         <v>-0.03</v>
       </c>
-      <c r="O18" s="26">
+      <c r="O18" s="24">
         <v>-0.11</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" s="23">
-        <v>2020</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="24">
+      <c r="A19" s="37">
+        <v>43983</v>
+      </c>
+      <c r="B19" s="48">
+        <v>2020.06</v>
+      </c>
+      <c r="C19" s="23">
         <v>-0.38</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="24">
         <v>-0.11</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="24">
         <v>0.21</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="24">
         <v>-2.06</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="24">
         <v>-0.53</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="24">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="24">
         <v>0.33</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="24">
         <v>-0.53</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="24">
         <v>-0.06</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="24">
         <v>-0.16</v>
       </c>
-      <c r="M19" s="26">
+      <c r="M19" s="24">
         <v>0</v>
       </c>
-      <c r="N19" s="26">
+      <c r="N19" s="24">
         <v>-0.04</v>
       </c>
-      <c r="O19" s="26">
+      <c r="O19" s="24">
         <v>-0.23</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="23">
-        <v>2020</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="24">
+      <c r="A20" s="37">
+        <v>44013</v>
+      </c>
+      <c r="B20" s="48">
+        <v>2020.07</v>
+      </c>
+      <c r="C20" s="23">
         <v>0</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="24">
         <v>-0.8</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="24">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="24">
         <v>-0.09</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="24">
         <v>0.16</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="24">
         <v>0</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="24">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="24">
         <v>0.25</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="24">
         <v>-0.02</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="24">
         <v>0.05</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="24">
         <v>0</v>
       </c>
-      <c r="N20" s="26">
+      <c r="N20" s="24">
         <v>0.27</v>
       </c>
-      <c r="O20" s="26">
+      <c r="O20" s="24">
         <v>0.22</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="23">
-        <v>2020</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="24">
+      <c r="A21" s="37">
+        <v>44044</v>
+      </c>
+      <c r="B21" s="48">
+        <v>2020.08</v>
+      </c>
+      <c r="C21" s="23">
         <v>-0.01</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="24">
         <v>-0.45</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="24">
         <v>0.32</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="24">
         <v>-1</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="24">
         <v>-0.05</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="24">
         <v>0.7</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="24">
         <v>0.27</v>
       </c>
-      <c r="K21" s="26">
+      <c r="K21" s="24">
         <v>3.6</v>
       </c>
-      <c r="L21" s="26">
+      <c r="L21" s="24">
         <v>0.17</v>
       </c>
-      <c r="M21" s="26">
+      <c r="M21" s="24">
         <v>-3.48</v>
       </c>
-      <c r="N21" s="26">
+      <c r="N21" s="24">
         <v>0.18</v>
       </c>
-      <c r="O21" s="26">
+      <c r="O21" s="24">
         <v>0.49</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" s="23">
-        <v>2020</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="24">
+      <c r="A22" s="37">
+        <v>44075</v>
+      </c>
+      <c r="B22" s="48">
+        <v>2020.09</v>
+      </c>
+      <c r="C22" s="23">
         <v>0.32</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="24">
         <v>-0.04</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="24">
         <v>0.15</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="24">
         <v>0.26</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="24">
         <v>0.51</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="24">
         <v>0.11</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="24">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J22" s="26">
+      <c r="J22" s="24">
         <v>0.83</v>
       </c>
-      <c r="K22" s="26">
+      <c r="K22" s="24">
         <v>2.5499999999999998</v>
       </c>
-      <c r="L22" s="26">
+      <c r="L22" s="24">
         <v>-0.02</v>
       </c>
-      <c r="M22" s="26">
+      <c r="M22" s="24">
         <v>-2.77</v>
       </c>
-      <c r="N22" s="26">
+      <c r="N22" s="24">
         <v>0.28000000000000003</v>
       </c>
-      <c r="O22" s="26">
+      <c r="O22" s="24">
         <v>0.39</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="23">
-        <v>2020</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="24">
+      <c r="A23" s="37">
+        <v>44105</v>
+      </c>
+      <c r="B23" s="48">
+        <v>2020.1</v>
+      </c>
+      <c r="C23" s="23">
         <v>-0.06</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="24">
         <v>-0.32</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="24">
         <v>0.12</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="24">
         <v>-0.13</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="24">
         <v>-0.06</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="24">
         <v>0.04</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="24">
         <v>0.9</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="24">
         <v>-0.13</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L23" s="24">
         <v>0.06</v>
       </c>
-      <c r="M23" s="26">
+      <c r="M23" s="24">
         <v>-2.48</v>
       </c>
-      <c r="N23" s="26">
+      <c r="N23" s="24">
         <v>0.23</v>
       </c>
-      <c r="O23" s="26">
+      <c r="O23" s="24">
         <v>-0.21</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" s="23">
-        <v>2020</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="24">
+      <c r="A24" s="37">
+        <v>44136</v>
+      </c>
+      <c r="B24" s="48">
+        <v>2020.11</v>
+      </c>
+      <c r="C24" s="23">
         <v>-0.15</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="24">
         <v>0.06</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="24">
         <v>0.16</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="24">
         <v>-3.71</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="24">
         <v>0.11</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="24">
         <v>-0.31</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="24">
         <v>0.13</v>
       </c>
-      <c r="J24" s="26">
+      <c r="J24" s="24">
         <v>-0.03</v>
       </c>
-      <c r="K24" s="26">
+      <c r="K24" s="24">
         <v>-0.46</v>
       </c>
-      <c r="L24" s="26">
+      <c r="L24" s="24">
         <v>-0.52</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M24" s="24">
         <v>-1.03</v>
       </c>
-      <c r="N24" s="26">
+      <c r="N24" s="24">
         <v>0.28000000000000003</v>
       </c>
-      <c r="O24" s="26">
+      <c r="O24" s="24">
         <v>0.16</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="23">
-        <v>2020</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="24">
+      <c r="A25" s="37">
+        <v>44166</v>
+      </c>
+      <c r="B25" s="48">
+        <v>2020.12</v>
+      </c>
+      <c r="C25" s="23">
         <v>0.38</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="24">
         <v>0.43</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="24">
         <v>-0.05</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="24">
         <v>2.95</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="24">
         <v>0.52</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="24">
         <v>0.31</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="24">
         <v>0.12</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J25" s="24">
         <v>0.12</v>
       </c>
-      <c r="K25" s="26">
+      <c r="K25" s="24">
         <v>0.38</v>
       </c>
-      <c r="L25" s="26">
+      <c r="L25" s="24">
         <v>0.69</v>
       </c>
-      <c r="M25" s="26">
+      <c r="M25" s="24">
         <v>-2.11</v>
       </c>
-      <c r="N25" s="26">
+      <c r="N25" s="24">
         <v>0.49</v>
       </c>
-      <c r="O25" s="26">
+      <c r="O25" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" s="23">
-        <v>2021</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="24">
+      <c r="A26" s="37">
+        <v>44197</v>
+      </c>
+      <c r="B26" s="48">
+        <v>2021.01</v>
+      </c>
+      <c r="C26" s="23">
         <v>0.41</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="24">
         <v>1.44</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="24">
         <v>0.2</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="24">
         <v>-0.41</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="24">
         <v>0.13</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="24">
         <v>0.26</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="24">
         <v>0.26</v>
       </c>
-      <c r="J26" s="26">
+      <c r="J26" s="24">
         <v>0.7</v>
       </c>
-      <c r="K26" s="26">
+      <c r="K26" s="24">
         <v>-0.16</v>
       </c>
-      <c r="L26" s="26">
+      <c r="L26" s="24">
         <v>-0.82</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26" s="24">
         <v>0</v>
       </c>
-      <c r="N26" s="26">
+      <c r="N26" s="24">
         <v>0.65</v>
       </c>
-      <c r="O26" s="26">
+      <c r="O26" s="24">
         <v>0.37</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="23">
-        <v>2021</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="24">
+      <c r="A27" s="37">
+        <v>44228</v>
+      </c>
+      <c r="B27" s="48">
+        <v>2021.02</v>
+      </c>
+      <c r="C27" s="23">
         <v>0.64</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="24">
         <v>0.46</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="24">
         <v>0.31</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="24">
         <v>1.82</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="24">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="24">
         <v>0.96</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="24">
         <v>0.59</v>
       </c>
-      <c r="J27" s="26">
+      <c r="J27" s="24">
         <v>0.62</v>
       </c>
-      <c r="K27" s="26">
+      <c r="K27" s="24">
         <v>-0.09</v>
       </c>
-      <c r="L27" s="26">
+      <c r="L27" s="24">
         <v>0.82</v>
       </c>
-      <c r="M27" s="26">
+      <c r="M27" s="24">
         <v>3.56</v>
       </c>
-      <c r="N27" s="26">
+      <c r="N27" s="24">
         <v>0.69</v>
       </c>
-      <c r="O27" s="26">
+      <c r="O27" s="24">
         <v>0.62</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="23">
-        <v>2021</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="24">
+      <c r="A28" s="37">
+        <v>44256</v>
+      </c>
+      <c r="B28" s="48">
+        <v>2021.03</v>
+      </c>
+      <c r="C28" s="23">
         <v>0.51</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="24">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="24">
         <v>0.46</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="24">
         <v>0.46</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="24">
         <v>0.69</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="24">
         <v>0.3</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="24">
         <v>0.31</v>
       </c>
-      <c r="J28" s="26">
+      <c r="J28" s="24">
         <v>0.43</v>
       </c>
-      <c r="K28" s="26">
+      <c r="K28" s="24">
         <v>-0.85</v>
       </c>
-      <c r="L28" s="26">
+      <c r="L28" s="24">
         <v>-0.53</v>
       </c>
-      <c r="M28" s="26">
+      <c r="M28" s="24">
         <v>0.24</v>
       </c>
-      <c r="N28" s="26">
+      <c r="N28" s="24">
         <v>0.4</v>
       </c>
-      <c r="O28" s="26">
+      <c r="O28" s="24">
         <v>0.13</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="23">
-        <v>2021</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="24">
+      <c r="A29" s="37">
+        <v>44287</v>
+      </c>
+      <c r="B29" s="48">
+        <v>2021.04</v>
+      </c>
+      <c r="C29" s="23">
         <v>0.59</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="24">
         <v>2.09</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="24">
         <v>0.51</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="24">
         <v>-0.37</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="24">
         <v>0.43</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="24">
         <v>0.37</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="24">
         <v>0.42</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J29" s="24">
         <v>0.38</v>
       </c>
-      <c r="K29" s="26">
+      <c r="K29" s="24">
         <v>-1.1299999999999999</v>
       </c>
-      <c r="L29" s="26">
+      <c r="L29" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M29" s="26">
+      <c r="M29" s="24">
         <v>0.86</v>
       </c>
-      <c r="N29" s="26">
+      <c r="N29" s="24">
         <v>0.37</v>
       </c>
-      <c r="O29" s="26">
+      <c r="O29" s="24">
         <v>0.35</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30" s="23">
-        <v>2021</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="24">
+      <c r="A30" s="37">
+        <v>44317</v>
+      </c>
+      <c r="B30" s="48">
+        <v>2021.05</v>
+      </c>
+      <c r="C30" s="23">
         <v>1</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="24">
         <v>5.37</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="24">
         <v>0.22</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="24">
         <v>0.08</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="24">
         <v>0.24</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="24">
         <v>0.32</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I30" s="24">
         <v>0.27</v>
       </c>
-      <c r="J30" s="26">
+      <c r="J30" s="24">
         <v>0.33</v>
       </c>
-      <c r="K30" s="26">
+      <c r="K30" s="24">
         <v>-3.17</v>
       </c>
-      <c r="L30" s="26">
+      <c r="L30" s="24">
         <v>0.18</v>
       </c>
-      <c r="M30" s="26">
+      <c r="M30" s="24">
         <v>0.06</v>
       </c>
-      <c r="N30" s="26">
+      <c r="N30" s="24">
         <v>0.86</v>
       </c>
-      <c r="O30" s="26">
+      <c r="O30" s="24">
         <v>0.24</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" s="23">
-        <v>2021</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="24">
+      <c r="A31" s="37">
+        <v>44348</v>
+      </c>
+      <c r="B31" s="48">
+        <v>2021.06</v>
+      </c>
+      <c r="C31" s="23">
         <v>-0.05</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="24">
         <v>-1.02</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="24">
         <v>0.24</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="24">
         <v>0.02</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31" s="24">
         <v>0.06</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="24">
         <v>0.35</v>
       </c>
-      <c r="I31" s="26">
+      <c r="I31" s="24">
         <v>0.23</v>
       </c>
-      <c r="J31" s="26">
+      <c r="J31" s="24">
         <v>0.1</v>
       </c>
-      <c r="K31" s="26">
+      <c r="K31" s="24">
         <v>-0.27</v>
       </c>
-      <c r="L31" s="26">
+      <c r="L31" s="24">
         <v>0.05</v>
       </c>
-      <c r="M31" s="26">
+      <c r="M31" s="24">
         <v>0</v>
       </c>
-      <c r="N31" s="26">
+      <c r="N31" s="24">
         <v>0.68</v>
       </c>
-      <c r="O31" s="26">
+      <c r="O31" s="24">
         <v>0.27</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" s="23">
-        <v>2021</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="24">
+      <c r="A32" s="37">
+        <v>44378</v>
+      </c>
+      <c r="B32" s="48">
+        <v>2021.07</v>
+      </c>
+      <c r="C32" s="23">
         <v>0.32</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="24">
         <v>0.38</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="24">
         <v>0.27</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="24">
         <v>0.18</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="24">
         <v>0.31</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="24">
         <v>0.23</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="24">
         <v>0.27</v>
       </c>
-      <c r="J32" s="26">
+      <c r="J32" s="24">
         <v>0.23</v>
       </c>
-      <c r="K32" s="26">
+      <c r="K32" s="24">
         <v>-0.11</v>
       </c>
-      <c r="L32" s="26">
+      <c r="L32" s="24">
         <v>0.38</v>
       </c>
-      <c r="M32" s="26">
+      <c r="M32" s="24">
         <v>0</v>
       </c>
-      <c r="N32" s="26">
+      <c r="N32" s="24">
         <v>0.8</v>
       </c>
-      <c r="O32" s="26">
+      <c r="O32" s="24">
         <v>0.31</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="23">
-        <v>2021</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="24">
+      <c r="A33" s="37">
+        <v>44409</v>
+      </c>
+      <c r="B33" s="48">
+        <v>2021.08</v>
+      </c>
+      <c r="C33" s="23">
         <v>0.45</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="24">
         <v>1.08</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="24">
         <v>0.22</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F33" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G33" s="24">
         <v>0.19</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H33" s="24">
         <v>0.3</v>
       </c>
-      <c r="I33" s="26">
+      <c r="I33" s="24">
         <v>0.25</v>
       </c>
-      <c r="J33" s="26">
+      <c r="J33" s="24">
         <v>0.34</v>
       </c>
-      <c r="K33" s="26">
+      <c r="K33" s="24">
         <v>-0.18</v>
       </c>
-      <c r="L33" s="26">
+      <c r="L33" s="24">
         <v>0.19</v>
       </c>
-      <c r="M33" s="26">
+      <c r="M33" s="24">
         <v>0.62</v>
       </c>
-      <c r="N33" s="26">
+      <c r="N33" s="24">
         <v>0.99</v>
       </c>
-      <c r="O33" s="26">
+      <c r="O33" s="24">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" s="23">
-        <v>2021</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="24">
+      <c r="A34" s="37">
+        <v>44440</v>
+      </c>
+      <c r="B34" s="48">
+        <v>2021.09</v>
+      </c>
+      <c r="C34" s="23">
         <v>0.38</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="24">
         <v>0.76</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="24">
         <v>0.41</v>
       </c>
-      <c r="F34" s="26">
+      <c r="F34" s="24">
         <v>0.08</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G34" s="24">
         <v>0.4</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="24">
         <v>0.38</v>
       </c>
-      <c r="I34" s="26">
+      <c r="I34" s="24">
         <v>0.48</v>
       </c>
-      <c r="J34" s="26">
+      <c r="J34" s="24">
         <v>0.59</v>
       </c>
-      <c r="K34" s="26">
+      <c r="K34" s="24">
         <v>0.08</v>
       </c>
-      <c r="L34" s="26">
+      <c r="L34" s="24">
         <v>0.77</v>
       </c>
-      <c r="M34" s="26">
+      <c r="M34" s="24">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="N34" s="26">
+      <c r="N34" s="24">
         <v>0.55000000000000004</v>
       </c>
-      <c r="O34" s="26">
+      <c r="O34" s="24">
         <v>0.48</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" s="23">
-        <v>2021</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="24">
+      <c r="A35" s="37">
+        <v>44470</v>
+      </c>
+      <c r="B35" s="48">
+        <v>2021.1</v>
+      </c>
+      <c r="C35" s="23">
         <v>0.01</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="24">
         <v>0.89</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="24">
         <v>0.46</v>
       </c>
-      <c r="F35" s="26">
+      <c r="F35" s="24">
         <v>-3.45</v>
       </c>
-      <c r="G35" s="26">
+      <c r="G35" s="24">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H35" s="26">
+      <c r="H35" s="24">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I35" s="26">
+      <c r="I35" s="24">
         <v>0.5</v>
       </c>
-      <c r="J35" s="26">
+      <c r="J35" s="24">
         <v>0.5</v>
       </c>
-      <c r="K35" s="26">
+      <c r="K35" s="24">
         <v>-6.79</v>
       </c>
-      <c r="L35" s="26">
+      <c r="L35" s="24">
         <v>-0.21</v>
       </c>
-      <c r="M35" s="26">
+      <c r="M35" s="24">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="N35" s="26">
+      <c r="N35" s="24">
         <v>0.53</v>
       </c>
-      <c r="O35" s="26">
+      <c r="O35" s="24">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="23">
-        <v>2021</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="24">
+      <c r="A36" s="37">
+        <v>44501</v>
+      </c>
+      <c r="B36" s="48">
+        <v>2021.11</v>
+      </c>
+      <c r="C36" s="23">
         <v>0.5</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="24">
         <v>1.45</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="24">
         <v>0.44</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="24">
         <v>-0.63</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="24">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="24">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I36" s="24">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J36" s="24">
         <v>0.47</v>
       </c>
-      <c r="K36" s="26">
+      <c r="K36" s="24">
         <v>0.09</v>
       </c>
-      <c r="L36" s="26">
+      <c r="L36" s="24">
         <v>-0.5</v>
       </c>
-      <c r="M36" s="26">
+      <c r="M36" s="24">
         <v>0</v>
       </c>
-      <c r="N36" s="26">
+      <c r="N36" s="24">
         <v>0.93</v>
       </c>
-      <c r="O36" s="26">
+      <c r="O36" s="24">
         <v>0.31</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="23">
-        <v>2021</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="24">
+      <c r="A37" s="37">
+        <v>44531</v>
+      </c>
+      <c r="B37" s="48">
+        <v>2021.12</v>
+      </c>
+      <c r="C37" s="23">
         <v>0.73</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="24">
         <v>2.08</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37" s="24">
         <v>0.78</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="24">
         <v>-0.41</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="24">
         <v>0.32</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="24">
         <v>0.23</v>
       </c>
-      <c r="I37" s="26">
+      <c r="I37" s="24">
         <v>0.03</v>
       </c>
-      <c r="J37" s="26">
+      <c r="J37" s="24">
         <v>0.86</v>
       </c>
-      <c r="K37" s="26">
+      <c r="K37" s="24">
         <v>-0.01</v>
       </c>
-      <c r="L37" s="26">
+      <c r="L37" s="24">
         <v>0.65</v>
       </c>
-      <c r="M37" s="26">
+      <c r="M37" s="24">
         <v>-0.15</v>
       </c>
-      <c r="N37" s="26">
+      <c r="N37" s="24">
         <v>1.04</v>
       </c>
-      <c r="O37" s="26">
+      <c r="O37" s="24">
         <v>0.44</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" s="23">
-        <v>2022</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="24">
+      <c r="A38" s="37">
+        <v>44562</v>
+      </c>
+      <c r="B38" s="48">
+        <v>2022.01</v>
+      </c>
+      <c r="C38" s="23">
         <v>1.67</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="24">
         <v>3.79</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="24">
         <v>0.72</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="24">
         <v>4.03</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="24">
         <v>0.46</v>
       </c>
-      <c r="H38" s="26">
+      <c r="H38" s="24">
         <v>2.93</v>
       </c>
-      <c r="I38" s="26">
+      <c r="I38" s="24">
         <v>0.93</v>
       </c>
-      <c r="J38" s="26">
+      <c r="J38" s="24">
         <v>1.85</v>
       </c>
-      <c r="K38" s="26">
+      <c r="K38" s="24">
         <v>0.13</v>
       </c>
-      <c r="L38" s="26">
+      <c r="L38" s="24">
         <v>0.57999999999999996</v>
       </c>
-      <c r="M38" s="26">
+      <c r="M38" s="24">
         <v>0</v>
       </c>
-      <c r="N38" s="26">
+      <c r="N38" s="24">
         <v>2.4</v>
       </c>
-      <c r="O38" s="26">
+      <c r="O38" s="24">
         <v>1.29</v>
       </c>
     </row>
@@ -7880,7 +7851,7 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="B1" sqref="B1:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7898,1568 +7869,1568 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="48" t="s">
+      <c r="A1" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="O1" s="36" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="25">
-        <v>2019</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="47">
+      <c r="A2" s="37">
+        <v>43466</v>
+      </c>
+      <c r="B2" s="48">
+        <v>2019.01</v>
+      </c>
+      <c r="C2" s="35">
         <v>3.15</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33">
+      <c r="D2" s="28"/>
+      <c r="E2" s="29">
         <v>4.03</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33">
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29">
         <v>1.69</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="34"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="25">
-        <v>2019</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="47">
+      <c r="A3" s="37">
+        <v>43497</v>
+      </c>
+      <c r="B3" s="48">
+        <v>2019.02</v>
+      </c>
+      <c r="C3" s="35">
         <v>3.01</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="35">
+      <c r="D3" s="26"/>
+      <c r="E3" s="31">
         <v>3.91</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="35">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="31">
         <v>1.33</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="27"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="25">
-        <v>2019</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="47">
+      <c r="A4" s="37">
+        <v>43525</v>
+      </c>
+      <c r="B4" s="48">
+        <v>2019.03</v>
+      </c>
+      <c r="C4" s="35">
         <v>3.21</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33">
+      <c r="D4" s="28"/>
+      <c r="E4" s="29">
         <v>4.37</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="33">
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29">
         <v>1.2</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="34"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="30"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="25">
-        <v>2019</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="47">
+      <c r="A5" s="37">
+        <v>43556</v>
+      </c>
+      <c r="B5" s="48">
+        <v>2019.04</v>
+      </c>
+      <c r="C5" s="35">
         <v>3.25</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="35">
+      <c r="D5" s="26"/>
+      <c r="E5" s="31">
         <v>4.82</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="35">
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="31">
         <v>1.93</v>
       </c>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="31"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="27"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="25">
-        <v>2019</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="47">
+      <c r="A6" s="37">
+        <v>43586</v>
+      </c>
+      <c r="B6" s="48">
+        <v>2019.05</v>
+      </c>
+      <c r="C6" s="35">
         <v>3.31</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33">
+      <c r="D6" s="28"/>
+      <c r="E6" s="29">
         <v>5.12</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="33">
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29">
         <v>1.88</v>
       </c>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="34"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="30"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="25">
-        <v>2019</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="47">
+      <c r="A7" s="37">
+        <v>43617</v>
+      </c>
+      <c r="B7" s="48">
+        <v>2019.06</v>
+      </c>
+      <c r="C7" s="35">
         <v>3.43</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="35">
+      <c r="D7" s="26"/>
+      <c r="E7" s="31">
         <v>5.22</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="35">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="31">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="31"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="27"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="25">
-        <v>2019</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="47">
+      <c r="A8" s="37">
+        <v>43647</v>
+      </c>
+      <c r="B8" s="48">
+        <v>2019.07</v>
+      </c>
+      <c r="C8" s="35">
         <v>3.79</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33">
+      <c r="D8" s="28"/>
+      <c r="E8" s="29">
         <v>5.17</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="33">
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29">
         <v>1.83</v>
       </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="34"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="30"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="25">
-        <v>2019</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="47">
+      <c r="A9" s="37">
+        <v>43678</v>
+      </c>
+      <c r="B9" s="48">
+        <v>2019.08</v>
+      </c>
+      <c r="C9" s="35">
         <v>3.75</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="35">
+      <c r="D9" s="26"/>
+      <c r="E9" s="31">
         <v>4.9800000000000004</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="35">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="31">
         <v>1.82</v>
       </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="31"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="27"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="25">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="47">
+      <c r="A10" s="37">
+        <v>43709</v>
+      </c>
+      <c r="B10" s="48">
+        <v>2019.09</v>
+      </c>
+      <c r="C10" s="35">
         <v>3.82</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33">
+      <c r="D10" s="28"/>
+      <c r="E10" s="29">
         <v>4.66</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33">
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29">
         <v>1.78</v>
       </c>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="34"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="30"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="25">
-        <v>2019</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="47">
+      <c r="A11" s="37">
+        <v>43739</v>
+      </c>
+      <c r="B11" s="48">
+        <v>2019.1</v>
+      </c>
+      <c r="C11" s="35">
         <v>3.86</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="35">
+      <c r="D11" s="26"/>
+      <c r="E11" s="31">
         <v>4.78</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="35">
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="31">
         <v>1.77</v>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="27"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="25">
-        <v>2019</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="47">
+      <c r="A12" s="37">
+        <v>43770</v>
+      </c>
+      <c r="B12" s="48">
+        <v>2019.11</v>
+      </c>
+      <c r="C12" s="35">
         <v>3.84</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33">
+      <c r="D12" s="28"/>
+      <c r="E12" s="29">
         <v>4.96</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33">
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29">
         <v>1.73</v>
       </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="34"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="30"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="25">
-        <v>2019</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="47">
+      <c r="A13" s="37">
+        <v>43800</v>
+      </c>
+      <c r="B13" s="48">
+        <v>2019.12</v>
+      </c>
+      <c r="C13" s="35">
         <v>3.8</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="31">
         <v>5.8</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="31">
         <v>5.48</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="31">
         <v>0.69</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="31">
         <v>3.46</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="31">
         <v>2.54</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="31">
         <v>2.82</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="31">
         <v>3.41</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="31">
         <v>2.73</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="31">
         <v>3.7</v>
       </c>
-      <c r="M13" s="35">
+      <c r="M13" s="31">
         <v>5.75</v>
       </c>
-      <c r="N13" s="35">
+      <c r="N13" s="31">
         <v>4.2300000000000004</v>
       </c>
-      <c r="O13" s="36">
+      <c r="O13" s="32">
         <v>2.95</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="47">
+      <c r="A14" s="37">
+        <v>43831</v>
+      </c>
+      <c r="B14" s="48">
+        <v>2020.01</v>
+      </c>
+      <c r="C14" s="35">
         <v>3.62</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="29">
         <v>5.13</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="29">
         <v>5.39</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="29">
         <v>1.07</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="29">
         <v>3.25</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="29">
         <v>2.6</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="29">
         <v>3.04</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="29">
         <v>3.76</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="29">
         <v>1.66</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="29">
         <v>3.72</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="29">
         <v>5.75</v>
       </c>
-      <c r="N14" s="33">
+      <c r="N14" s="29">
         <v>3.94</v>
       </c>
-      <c r="O14" s="37">
+      <c r="O14" s="33">
         <v>2.87</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="47">
+      <c r="A15" s="37">
+        <v>43862</v>
+      </c>
+      <c r="B15" s="48">
+        <v>2020.02</v>
+      </c>
+      <c r="C15" s="35">
         <v>3.72</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="31">
         <v>5.87</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="31">
         <v>4.83</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="31">
         <v>1.31</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="31">
         <v>3.45</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="31">
         <v>2.5499999999999998</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="31">
         <v>3.73</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="31">
         <v>3.24</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="31">
         <v>1.69</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15" s="31">
         <v>3.41</v>
       </c>
-      <c r="M15" s="35">
+      <c r="M15" s="31">
         <v>6.06</v>
       </c>
-      <c r="N15" s="35">
+      <c r="N15" s="31">
         <v>3.72</v>
       </c>
-      <c r="O15" s="36">
+      <c r="O15" s="32">
         <v>2.67</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="47">
+      <c r="A16" s="37">
+        <v>43891</v>
+      </c>
+      <c r="B16" s="48">
+        <v>2020.03</v>
+      </c>
+      <c r="C16" s="35">
         <v>3.86</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="29">
         <v>7.19</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="29">
         <v>4.09</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="29">
         <v>1.37</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="29">
         <v>3.33</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="29">
         <v>2.48</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="29">
         <v>4.08</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="29">
         <v>2.78</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="29">
         <v>1.85</v>
       </c>
-      <c r="L16" s="33">
+      <c r="L16" s="29">
         <v>3.55</v>
       </c>
-      <c r="M16" s="33">
+      <c r="M16" s="29">
         <v>6.05</v>
       </c>
-      <c r="N16" s="33">
+      <c r="N16" s="29">
         <v>3.91</v>
       </c>
-      <c r="O16" s="37">
+      <c r="O16" s="33">
         <v>2.82</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="47">
+      <c r="A17" s="37">
+        <v>43922</v>
+      </c>
+      <c r="B17" s="48">
+        <v>2020.04</v>
+      </c>
+      <c r="C17" s="35">
         <v>3.51</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="31">
         <v>8.23</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="31">
         <v>3.37</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="31">
         <v>0.9</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="31">
         <v>3.01</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="31">
         <v>2.09</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="31">
         <v>4.29</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="31">
         <v>1.63</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="31">
         <v>-1.89</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="31">
         <v>3.23</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M17" s="31">
         <v>5.97</v>
       </c>
-      <c r="N17" s="35">
+      <c r="N17" s="31">
         <v>3.59</v>
       </c>
-      <c r="O17" s="36">
+      <c r="O17" s="32">
         <v>2.74</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="47">
+      <c r="A18" s="37">
+        <v>43952</v>
+      </c>
+      <c r="B18" s="48">
+        <v>2020.05</v>
+      </c>
+      <c r="C18" s="35">
         <v>2.85</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="29">
         <v>7.57</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="29">
         <v>2.85</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="29">
         <v>0.33</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="29">
         <v>2.37</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="29">
         <v>0.04</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="29">
         <v>4.4800000000000004</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="29">
         <v>1.1399999999999999</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="29">
         <v>-4.8899999999999997</v>
       </c>
-      <c r="L18" s="33">
+      <c r="L18" s="29">
         <v>3.07</v>
       </c>
-      <c r="M18" s="33">
+      <c r="M18" s="29">
         <v>5.96</v>
       </c>
-      <c r="N18" s="33">
+      <c r="N18" s="29">
         <v>3.37</v>
       </c>
-      <c r="O18" s="37">
+      <c r="O18" s="33">
         <v>2.5</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="47">
+      <c r="A19" s="37">
+        <v>43983</v>
+      </c>
+      <c r="B19" s="48">
+        <v>2020.06</v>
+      </c>
+      <c r="C19" s="35">
         <v>2.19</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="31">
         <v>6.55</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="31">
         <v>2.8</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="31">
         <v>-1.83</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="31">
         <v>1.74</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="31">
         <v>-0.74</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="31">
         <v>4.53</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="31">
         <v>0.15</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="31">
         <v>-4.83</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L19" s="31">
         <v>2.36</v>
       </c>
-      <c r="M19" s="35">
+      <c r="M19" s="31">
         <v>5.96</v>
       </c>
-      <c r="N19" s="35">
+      <c r="N19" s="31">
         <v>3.23</v>
       </c>
-      <c r="O19" s="36">
+      <c r="O19" s="32">
         <v>2.13</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="47">
+      <c r="A20" s="37">
+        <v>44013</v>
+      </c>
+      <c r="B20" s="48">
+        <v>2020.07</v>
+      </c>
+      <c r="C20" s="35">
         <v>1.97</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="29">
         <v>5</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="29">
         <v>2.95</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="29">
         <v>-1.69</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="29">
         <v>1.73</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="29">
         <v>-0.79</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="29">
         <v>4.95</v>
       </c>
-      <c r="J20" s="33">
+      <c r="J20" s="29">
         <v>0.12</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="29">
         <v>-5.16</v>
       </c>
-      <c r="L20" s="33">
+      <c r="L20" s="29">
         <v>1.89</v>
       </c>
-      <c r="M20" s="33">
+      <c r="M20" s="29">
         <v>5.96</v>
       </c>
-      <c r="N20" s="33">
+      <c r="N20" s="29">
         <v>3.56</v>
       </c>
-      <c r="O20" s="37">
+      <c r="O20" s="33">
         <v>2.34</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="47">
+      <c r="A21" s="37">
+        <v>44044</v>
+      </c>
+      <c r="B21" s="48">
+        <v>2020.08</v>
+      </c>
+      <c r="C21" s="35">
         <v>1.88</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="31">
         <v>4.66</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="31">
         <v>3.36</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="31">
         <v>-2.88</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="31">
         <v>1.64</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="31">
         <v>-0.88</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="31">
         <v>5.37</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="31">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="31">
         <v>-1.58</v>
       </c>
-      <c r="L21" s="35">
+      <c r="L21" s="31">
         <v>2.33</v>
       </c>
-      <c r="M21" s="35">
+      <c r="M21" s="31">
         <v>2.16</v>
       </c>
-      <c r="N21" s="35">
+      <c r="N21" s="31">
         <v>3.41</v>
       </c>
-      <c r="O21" s="36">
+      <c r="O21" s="32">
         <v>2.69</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="47">
+      <c r="A22" s="37">
+        <v>44075</v>
+      </c>
+      <c r="B22" s="48">
+        <v>2020.09</v>
+      </c>
+      <c r="C22" s="35">
         <v>1.97</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="29">
         <v>4.13</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="29">
         <v>3.69</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="29">
         <v>-2.75</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="29">
         <v>1.95</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="29">
         <v>-0.84</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="29">
         <v>5.38</v>
       </c>
-      <c r="J22" s="33">
+      <c r="J22" s="29">
         <v>1.07</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="29">
         <v>0.95</v>
       </c>
-      <c r="L22" s="33">
+      <c r="L22" s="29">
         <v>2.74</v>
       </c>
-      <c r="M22" s="33">
+      <c r="M22" s="29">
         <v>-1.56</v>
       </c>
-      <c r="N22" s="33">
+      <c r="N22" s="29">
         <v>3.35</v>
       </c>
-      <c r="O22" s="37">
+      <c r="O22" s="33">
         <v>2.76</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="47">
+      <c r="A23" s="37">
+        <v>44105</v>
+      </c>
+      <c r="B23" s="48">
+        <v>2020.1</v>
+      </c>
+      <c r="C23" s="35">
         <v>1.75</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="31">
         <v>3.54</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="31">
         <v>3.51</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="31">
         <v>-2.92</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="31">
         <v>1.69</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="31">
         <v>-0.75</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="31">
         <v>5.09</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="31">
         <v>1.84</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23" s="31">
         <v>0.88</v>
       </c>
-      <c r="L23" s="35">
+      <c r="L23" s="31">
         <v>2.3199999999999998</v>
       </c>
-      <c r="M23" s="35">
+      <c r="M23" s="31">
         <v>-4.03</v>
       </c>
-      <c r="N23" s="35">
+      <c r="N23" s="31">
         <v>3.48</v>
       </c>
-      <c r="O23" s="36">
+      <c r="O23" s="32">
         <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="47">
+      <c r="A24" s="37">
+        <v>44136</v>
+      </c>
+      <c r="B24" s="48">
+        <v>2020.11</v>
+      </c>
+      <c r="C24" s="35">
         <v>1.49</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="29">
         <v>4.09</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="29">
         <v>3.22</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="29">
         <v>-6.62</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="29">
         <v>1.49</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="29">
         <v>-1.17</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="29">
         <v>5.01</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="29">
         <v>1.71</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="29">
         <v>0.48</v>
       </c>
-      <c r="L24" s="33">
+      <c r="L24" s="29">
         <v>1.4</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="29">
         <v>-5.0199999999999996</v>
       </c>
-      <c r="N24" s="33">
+      <c r="N24" s="29">
         <v>3.44</v>
       </c>
-      <c r="O24" s="37">
+      <c r="O24" s="33">
         <v>2.61</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="47">
+      <c r="A25" s="37">
+        <v>44166</v>
+      </c>
+      <c r="B25" s="48">
+        <v>2020.12</v>
+      </c>
+      <c r="C25" s="35">
         <v>1.61</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="31">
         <v>4.8</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="31">
         <v>2.61</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="31">
         <v>-3.94</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="31">
         <v>1.81</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="31">
         <v>-0.96</v>
       </c>
-      <c r="I25" s="35">
+      <c r="I25" s="31">
         <v>4.96</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="31">
         <v>1.35</v>
       </c>
-      <c r="K25" s="35">
+      <c r="K25" s="31">
         <v>-0.1</v>
       </c>
-      <c r="L25" s="35">
+      <c r="L25" s="31">
         <v>0.68</v>
       </c>
-      <c r="M25" s="35">
+      <c r="M25" s="31">
         <v>-7.02</v>
       </c>
-      <c r="N25" s="35">
+      <c r="N25" s="31">
         <v>3.43</v>
       </c>
-      <c r="O25" s="36">
+      <c r="O25" s="32">
         <v>2.52</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" s="25">
-        <v>2021</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="47">
+      <c r="A26" s="37">
+        <v>44197</v>
+      </c>
+      <c r="B26" s="48">
+        <v>2021.01</v>
+      </c>
+      <c r="C26" s="35">
         <v>1.6</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="29">
         <v>5.51</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="29">
         <v>2.39</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="29">
         <v>-4.54</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="29">
         <v>1.9</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="29">
         <v>-1.21</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="29">
         <v>4.62</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="29">
         <v>1.35</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="29">
         <v>-0.64</v>
       </c>
-      <c r="L26" s="33">
+      <c r="L26" s="29">
         <v>-0.63</v>
       </c>
-      <c r="M26" s="33">
+      <c r="M26" s="29">
         <v>-7.02</v>
       </c>
-      <c r="N26" s="33">
+      <c r="N26" s="29">
         <v>3.2</v>
       </c>
-      <c r="O26" s="37">
+      <c r="O26" s="33">
         <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="25">
-        <v>2021</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="47">
+      <c r="A27" s="37">
+        <v>44228</v>
+      </c>
+      <c r="B27" s="48">
+        <v>2021.02</v>
+      </c>
+      <c r="C27" s="35">
         <v>1.56</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="31">
         <v>5.0199999999999996</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="31">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="31">
         <v>-3.1</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="31">
         <v>1.7</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="31">
         <v>-0.61</v>
       </c>
-      <c r="I27" s="35">
+      <c r="I27" s="31">
         <v>4.5599999999999996</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="31">
         <v>1.7</v>
       </c>
-      <c r="K27" s="35">
+      <c r="K27" s="31">
         <v>-0.63</v>
       </c>
-      <c r="L27" s="35">
+      <c r="L27" s="31">
         <v>-0.05</v>
       </c>
-      <c r="M27" s="35">
+      <c r="M27" s="31">
         <v>-8.1</v>
       </c>
-      <c r="N27" s="35">
+      <c r="N27" s="31">
         <v>3.36</v>
       </c>
-      <c r="O27" s="36">
+      <c r="O27" s="32">
         <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="25">
-        <v>2021</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="47">
+      <c r="A28" s="37">
+        <v>44256</v>
+      </c>
+      <c r="B28" s="48">
+        <v>2021.03</v>
+      </c>
+      <c r="C28" s="35">
         <v>1.51</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="29">
         <v>3.92</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="29">
         <v>2.44</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="29">
         <v>-2.71</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="29">
         <v>1.84</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="29">
         <v>-0.61</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="29">
         <v>4.38</v>
       </c>
-      <c r="J28" s="33">
+      <c r="J28" s="29">
         <v>2.21</v>
       </c>
-      <c r="K28" s="33">
+      <c r="K28" s="29">
         <v>-1.5</v>
       </c>
-      <c r="L28" s="33">
+      <c r="L28" s="29">
         <v>-0.2</v>
       </c>
-      <c r="M28" s="33">
+      <c r="M28" s="29">
         <v>-7.91</v>
       </c>
-      <c r="N28" s="33">
+      <c r="N28" s="29">
         <v>3.61</v>
       </c>
-      <c r="O28" s="37">
+      <c r="O28" s="33">
         <v>2.14</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="25">
-        <v>2021</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="47">
+      <c r="A29" s="37">
+        <v>44287</v>
+      </c>
+      <c r="B29" s="48">
+        <v>2021.04</v>
+      </c>
+      <c r="C29" s="35">
         <v>1.95</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="31">
         <v>3.98</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E29" s="31">
         <v>2.83</v>
       </c>
-      <c r="F29" s="35">
+      <c r="F29" s="31">
         <v>-2.68</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G29" s="31">
         <v>2.13</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H29" s="31">
         <v>-0.31</v>
       </c>
-      <c r="I29" s="35">
+      <c r="I29" s="31">
         <v>4.28</v>
       </c>
-      <c r="J29" s="35">
+      <c r="J29" s="31">
         <v>3.52</v>
       </c>
-      <c r="K29" s="35">
+      <c r="K29" s="31">
         <v>0.37</v>
       </c>
-      <c r="L29" s="35">
+      <c r="L29" s="31">
         <v>-0.16</v>
       </c>
-      <c r="M29" s="35">
+      <c r="M29" s="31">
         <v>-7.12</v>
       </c>
-      <c r="N29" s="35">
+      <c r="N29" s="31">
         <v>3.83</v>
       </c>
-      <c r="O29" s="36">
+      <c r="O29" s="32">
         <v>2.27</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30" s="25">
-        <v>2021</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="47">
+      <c r="A30" s="37">
+        <v>44317</v>
+      </c>
+      <c r="B30" s="48">
+        <v>2021.05</v>
+      </c>
+      <c r="C30" s="35">
         <v>3.3</v>
       </c>
-      <c r="D30" s="33">
+      <c r="D30" s="29">
         <v>9.52</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="29">
         <v>2.77</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="29">
         <v>-2.33</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="29">
         <v>2.58</v>
       </c>
-      <c r="H30" s="33">
+      <c r="H30" s="29">
         <v>1.73</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="29">
         <v>4.12</v>
       </c>
-      <c r="J30" s="33">
+      <c r="J30" s="29">
         <v>4.34</v>
       </c>
-      <c r="K30" s="33">
+      <c r="K30" s="29">
         <v>0.32</v>
       </c>
-      <c r="L30" s="33">
+      <c r="L30" s="29">
         <v>-0.03</v>
       </c>
-      <c r="M30" s="33">
+      <c r="M30" s="29">
         <v>-7.11</v>
       </c>
-      <c r="N30" s="33">
+      <c r="N30" s="29">
         <v>4.76</v>
       </c>
-      <c r="O30" s="37">
+      <c r="O30" s="33">
         <v>2.64</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" s="25">
-        <v>2021</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="47">
+      <c r="A31" s="37">
+        <v>44348</v>
+      </c>
+      <c r="B31" s="48">
+        <v>2021.06</v>
+      </c>
+      <c r="C31" s="35">
         <v>3.63</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="31">
         <v>8.52</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="31">
         <v>2.8</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="31">
         <v>-0.25</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="31">
         <v>3.18</v>
       </c>
-      <c r="H31" s="35">
+      <c r="H31" s="31">
         <v>2.68</v>
       </c>
-      <c r="I31" s="35">
+      <c r="I31" s="31">
         <v>4.0199999999999996</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="31">
         <v>5</v>
       </c>
-      <c r="K31" s="35">
+      <c r="K31" s="31">
         <v>0.11</v>
       </c>
-      <c r="L31" s="35">
+      <c r="L31" s="31">
         <v>0.18</v>
       </c>
-      <c r="M31" s="35">
+      <c r="M31" s="31">
         <v>-7.11</v>
       </c>
-      <c r="N31" s="35">
+      <c r="N31" s="31">
         <v>5.52</v>
       </c>
-      <c r="O31" s="36">
+      <c r="O31" s="32">
         <v>3.15</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" s="25">
-        <v>2021</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="47">
+      <c r="A32" s="37">
+        <v>44378</v>
+      </c>
+      <c r="B32" s="48">
+        <v>2021.07</v>
+      </c>
+      <c r="C32" s="35">
         <v>3.97</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D32" s="29">
         <v>9.81</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E32" s="29">
         <v>2.94</v>
       </c>
-      <c r="F32" s="33">
+      <c r="F32" s="29">
         <v>0.02</v>
       </c>
-      <c r="G32" s="33">
+      <c r="G32" s="29">
         <v>3.34</v>
       </c>
-      <c r="H32" s="33">
+      <c r="H32" s="29">
         <v>2.92</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="29">
         <v>3.72</v>
       </c>
-      <c r="J32" s="33">
+      <c r="J32" s="29">
         <v>4.9800000000000004</v>
       </c>
-      <c r="K32" s="33">
+      <c r="K32" s="29">
         <v>0.02</v>
       </c>
-      <c r="L32" s="33">
+      <c r="L32" s="29">
         <v>0.52</v>
       </c>
-      <c r="M32" s="33">
+      <c r="M32" s="29">
         <v>-7.11</v>
       </c>
-      <c r="N32" s="33">
+      <c r="N32" s="29">
         <v>6.07</v>
       </c>
-      <c r="O32" s="37">
+      <c r="O32" s="33">
         <v>3.25</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="25">
-        <v>2021</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="47">
+      <c r="A33" s="37">
+        <v>44409</v>
+      </c>
+      <c r="B33" s="48">
+        <v>2021.08</v>
+      </c>
+      <c r="C33" s="35">
         <v>4.4400000000000004</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="31">
         <v>11.5</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="31">
         <v>2.83</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="31">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G33" s="31">
         <v>3.47</v>
       </c>
-      <c r="H33" s="35">
+      <c r="H33" s="31">
         <v>3.28</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="31">
         <v>3.26</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="31">
         <v>5.0599999999999996</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="31">
         <v>-3.63</v>
       </c>
-      <c r="L33" s="35">
+      <c r="L33" s="31">
         <v>0.54</v>
       </c>
-      <c r="M33" s="35">
+      <c r="M33" s="31">
         <v>-3.16</v>
       </c>
-      <c r="N33" s="35">
+      <c r="N33" s="31">
         <v>6.93</v>
       </c>
-      <c r="O33" s="36">
+      <c r="O33" s="32">
         <v>3.04</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" s="25">
-        <v>2021</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="47">
+      <c r="A34" s="37">
+        <v>44440</v>
+      </c>
+      <c r="B34" s="48">
+        <v>2021.09</v>
+      </c>
+      <c r="C34" s="35">
         <v>4.51</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D34" s="29">
         <v>12.4</v>
       </c>
-      <c r="E34" s="33">
+      <c r="E34" s="29">
         <v>3.1</v>
       </c>
-      <c r="F34" s="33">
+      <c r="F34" s="29">
         <v>0.92</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G34" s="29">
         <v>3.35</v>
       </c>
-      <c r="H34" s="33">
+      <c r="H34" s="29">
         <v>3.55</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="29">
         <v>3.46</v>
       </c>
-      <c r="J34" s="33">
+      <c r="J34" s="29">
         <v>4.8099999999999996</v>
       </c>
-      <c r="K34" s="33">
+      <c r="K34" s="29">
         <v>-5.95</v>
       </c>
-      <c r="L34" s="33">
+      <c r="L34" s="29">
         <v>1.33</v>
       </c>
-      <c r="M34" s="33">
+      <c r="M34" s="29">
         <v>-2.69</v>
       </c>
-      <c r="N34" s="33">
+      <c r="N34" s="29">
         <v>7.22</v>
       </c>
-      <c r="O34" s="37">
+      <c r="O34" s="33">
         <v>3.13</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" s="25">
-        <v>2021</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="47">
+      <c r="A35" s="37">
+        <v>44470</v>
+      </c>
+      <c r="B35" s="48">
+        <v>2021.1</v>
+      </c>
+      <c r="C35" s="35">
         <v>4.58</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="31">
         <v>13.76</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="31">
         <v>3.46</v>
       </c>
-      <c r="F35" s="35">
+      <c r="F35" s="31">
         <v>-2.44</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G35" s="31">
         <v>3.72</v>
       </c>
-      <c r="H35" s="35">
+      <c r="H35" s="31">
         <v>3.81</v>
       </c>
-      <c r="I35" s="35">
+      <c r="I35" s="31">
         <v>3.91</v>
       </c>
-      <c r="J35" s="35">
+      <c r="J35" s="31">
         <v>4.3899999999999997</v>
       </c>
-      <c r="K35" s="35">
+      <c r="K35" s="31">
         <v>-12.23</v>
       </c>
-      <c r="L35" s="35">
+      <c r="L35" s="31">
         <v>1.06</v>
       </c>
-      <c r="M35" s="35">
+      <c r="M35" s="31">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="N35" s="35">
+      <c r="N35" s="31">
         <v>7.55</v>
       </c>
-      <c r="O35" s="36">
+      <c r="O35" s="32">
         <v>3.65</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="25">
-        <v>2021</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="47">
+      <c r="A36" s="37">
+        <v>44501</v>
+      </c>
+      <c r="B36" s="48">
+        <v>2021.11</v>
+      </c>
+      <c r="C36" s="35">
         <v>5.26</v>
       </c>
-      <c r="D36" s="33">
+      <c r="D36" s="29">
         <v>15.34</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E36" s="29">
         <v>3.74</v>
       </c>
-      <c r="F36" s="33">
+      <c r="F36" s="29">
         <v>0.68</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="29">
         <v>3.89</v>
       </c>
-      <c r="H36" s="33">
+      <c r="H36" s="29">
         <v>4.42</v>
       </c>
-      <c r="I36" s="33">
+      <c r="I36" s="29">
         <v>4.08</v>
       </c>
-      <c r="J36" s="33">
+      <c r="J36" s="29">
         <v>4.91</v>
       </c>
-      <c r="K36" s="33">
+      <c r="K36" s="29">
         <v>-11.75</v>
       </c>
-      <c r="L36" s="33">
+      <c r="L36" s="29">
         <v>1.08</v>
       </c>
-      <c r="M36" s="33">
+      <c r="M36" s="29">
         <v>0.75</v>
       </c>
-      <c r="N36" s="33">
+      <c r="N36" s="29">
         <v>8.24</v>
       </c>
-      <c r="O36" s="37">
+      <c r="O36" s="33">
         <v>3.81</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="25">
-        <v>2021</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="47">
+      <c r="A37" s="37">
+        <v>44531</v>
+      </c>
+      <c r="B37" s="48">
+        <v>2021.12</v>
+      </c>
+      <c r="C37" s="35">
         <v>5.62</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="31">
         <v>17.23</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="31">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F37" s="31">
         <v>-2.6</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="31">
         <v>3.68</v>
       </c>
-      <c r="H37" s="35">
+      <c r="H37" s="31">
         <v>4.34</v>
       </c>
-      <c r="I37" s="35">
+      <c r="I37" s="31">
         <v>3.98</v>
       </c>
-      <c r="J37" s="35">
+      <c r="J37" s="31">
         <v>5.69</v>
       </c>
-      <c r="K37" s="35">
+      <c r="K37" s="31">
         <v>-12.1</v>
       </c>
-      <c r="L37" s="35">
+      <c r="L37" s="31">
         <v>1.04</v>
       </c>
-      <c r="M37" s="35">
+      <c r="M37" s="31">
         <v>2.76</v>
       </c>
-      <c r="N37" s="35">
+      <c r="N37" s="31">
         <v>8.83</v>
       </c>
-      <c r="O37" s="36">
+      <c r="O37" s="32">
         <v>4.1900000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" s="27">
-        <v>2022</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="47">
+      <c r="A38" s="37">
+        <v>44562</v>
+      </c>
+      <c r="B38" s="48">
+        <v>2022.01</v>
+      </c>
+      <c r="C38" s="35">
         <v>6.94</v>
       </c>
-      <c r="D38" s="33">
+      <c r="D38" s="29">
         <v>19.940000000000001</v>
       </c>
-      <c r="E38" s="33">
+      <c r="E38" s="29">
         <v>5.15</v>
       </c>
-      <c r="F38" s="33">
+      <c r="F38" s="29">
         <v>1.75</v>
       </c>
-      <c r="G38" s="33">
+      <c r="G38" s="29">
         <v>4.0199999999999996</v>
       </c>
-      <c r="H38" s="33">
+      <c r="H38" s="29">
         <v>7.12</v>
       </c>
-      <c r="I38" s="33">
+      <c r="I38" s="29">
         <v>4.68</v>
       </c>
-      <c r="J38" s="33">
+      <c r="J38" s="29">
         <v>6.9</v>
       </c>
-      <c r="K38" s="33">
+      <c r="K38" s="29">
         <v>-11.84</v>
       </c>
-      <c r="L38" s="33">
+      <c r="L38" s="29">
         <v>2.46</v>
       </c>
-      <c r="M38" s="33">
+      <c r="M38" s="29">
         <v>2.76</v>
       </c>
-      <c r="N38" s="33">
+      <c r="N38" s="29">
         <v>10.73</v>
       </c>
-      <c r="O38" s="37">
+      <c r="O38" s="33">
         <v>5.14</v>
       </c>
     </row>
